--- a/Model/Scn_liab.xlsx
+++ b/Model/Scn_liab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1611,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1700,11 +1700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
